--- a/app/data/params/mozzarella.xlsx
+++ b/app/data/params/mozzarella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="126">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t xml:space="preserve">Моцарелла в воде Чильеджина "Metro Chef" 45%, 0,125/0,225 кг, ф/п</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сулугуни "Зеленая линия", 45%, 0,28 кг, т/ф</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -434,12 +437,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -504,8 +501,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -527,8 +524,8 @@
   </sheetPr>
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q34" activeCellId="0" sqref="Q34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G31" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y77" activeCellId="0" sqref="Y77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2557,7 +2554,7 @@
       <c r="D29" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F29" s="0" t="s">
@@ -5317,6 +5314,77 @@
         <v>10</v>
       </c>
       <c r="AA66" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="N67" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O67" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>1020</v>
+      </c>
+      <c r="U67" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="V67" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="W67" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="X67" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y67" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z67" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA67" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5345,6 +5413,9 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B67" r:id="rId1" display="Сулугуни &quot;Зеленая линия&quot;, 45%, 0,28 кг, т/ф"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
